--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1139617.0409421</v>
+        <v>-1144905.156436872</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13133130.95920944</v>
+        <v>13131361.02103819</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>228.0690468991379</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>153.3980990619442</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.71410396768083</v>
+        <v>50.6435372072235</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>55.94019307932868</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>80.23859848371269</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>218.0727614903271</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>281.6235078304199</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072235</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.0212050398479</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>28.08249185995924</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>58.39197675152697</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>395.7065137448823</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>101.0574556237277</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>67.60461124345488</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>26.67154534797213</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372782</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362794</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>120.0961968842585</v>
+        <v>37.78288015201669</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1528,13 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993867</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.9984695717784</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>27.29296406584805</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338896</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456089</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901681</v>
       </c>
       <c r="S13" t="n">
-        <v>41.65302880045179</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>53.92875199688837</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362794</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>59.25671390701456</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717784</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465751</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338896</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456089</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>57.47381413161236</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>124.4527421315933</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1850,7 +1850,7 @@
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697377</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879325</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730196</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665127</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697377</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V20" t="n">
         <v>208.3257718879325</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2318,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875322</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277545</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059299</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880377</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908618</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7168126509259</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380501</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357228</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596442</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253646</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.40351179370839</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369162</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593858</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>838.222340889499</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="C2" t="n">
-        <v>607.8495662439052</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="D2" t="n">
-        <v>607.8495662439052</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E2" t="n">
-        <v>607.8495662439052</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222168</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>858.744593076436</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713898</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606226</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964321</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964321</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="V2" t="n">
-        <v>1628.169691667839</v>
+        <v>1343.041371020906</v>
       </c>
       <c r="W2" t="n">
-        <v>1628.169691667839</v>
+        <v>1343.041371020906</v>
       </c>
       <c r="X2" t="n">
-        <v>1238.717086600896</v>
+        <v>1188.093796210862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1238.717086600896</v>
+        <v>791.6030871314629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.79650946646</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637617</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.8441386582315</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="C4" t="n">
-        <v>344.8441386582315</v>
+        <v>255.3344270780409</v>
       </c>
       <c r="D4" t="n">
-        <v>344.8441386582315</v>
+        <v>255.3344270780409</v>
       </c>
       <c r="E4" t="n">
-        <v>344.8441386582315</v>
+        <v>255.3344270780409</v>
       </c>
       <c r="F4" t="n">
-        <v>344.8441386582315</v>
+        <v>98.00849229101385</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>425.8932280357191</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X4" t="n">
-        <v>344.8441386582315</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="Y4" t="n">
-        <v>344.8441386582315</v>
+        <v>425.5395450120517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1554.791658217766</v>
+        <v>1214.408393766695</v>
       </c>
       <c r="C5" t="n">
-        <v>1554.791658217766</v>
+        <v>1214.408393766695</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.51614156087</v>
+        <v>1214.408393766695</v>
       </c>
       <c r="E5" t="n">
-        <v>931.9326166774146</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477964</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L5" t="n">
-        <v>681.4657240221119</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1113.938633827816</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465278</v>
+        <v>1562.028895694243</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297165</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="U5" t="n">
-        <v>1951.282367297165</v>
+        <v>1614.903139478092</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.282367297165</v>
+        <v>1614.903139478092</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.282367297165</v>
+        <v>1614.903139478092</v>
       </c>
       <c r="X5" t="n">
-        <v>1951.282367297165</v>
+        <v>1614.903139478092</v>
       </c>
       <c r="Y5" t="n">
-        <v>1554.791658217766</v>
+        <v>1614.903139478092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591877</v>
+        <v>813.5918890426545</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637617</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836526</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515167</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886234</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1200.148090019521</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1010.841012369533</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.7007773287658</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>713.7604447249585</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V7" t="n">
-        <v>447.7810995457827</v>
+        <v>441.2518722869493</v>
       </c>
       <c r="W7" t="n">
-        <v>447.7810995457827</v>
+        <v>382.2700775884372</v>
       </c>
       <c r="X7" t="n">
-        <v>213.7007773287658</v>
+        <v>382.2700775884372</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.7007773287658</v>
+        <v>382.2700775884372</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.3724064362639</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C8" t="n">
-        <v>393.3724064362639</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D8" t="n">
-        <v>393.3724064362639</v>
+        <v>1186.537129085382</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>783.9536042019261</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>771.0995697723079</v>
       </c>
       <c r="G8" t="n">
         <v>371.396020535053</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1579.810466294003</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1579.810466294003</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1190.35786122706</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>793.8671521476608</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>595.101964561281</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>595.101964561281</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>595.101964561281</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W10" t="n">
-        <v>311.7715624924585</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>338.7125173894001</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>115.6004562060435</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.395101119023</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.015874768147</v>
+        <v>1370.477011451</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131009</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937469</v>
+        <v>726.0449080766004</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411556</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411556</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
         <v>565.7512566404055</v>
@@ -5048,43 +5048,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205778</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205778</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205778</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2984.647095423699</v>
+        <v>2637.413798173347</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.44433553818</v>
+        <v>2338.211038287828</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.788005617431</v>
+        <v>2020.554708367079</v>
       </c>
       <c r="Y11" t="n">
-        <v>2043.093571684226</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
         <v>175.2341099238429</v>
@@ -5127,10 +5127,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.3648084432239</v>
+        <v>416.9138851238277</v>
       </c>
       <c r="C13" t="n">
-        <v>145.9559656554069</v>
+        <v>318.5050423360108</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411556</v>
+        <v>234.6682043847195</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411556</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411556</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411556</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411556</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1454.658875349405</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1290.736098663833</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1077.093582051928</v>
+        <v>936.0428256245451</v>
       </c>
       <c r="V13" t="n">
-        <v>882.9105120189456</v>
+        <v>741.8597555915634</v>
       </c>
       <c r="W13" t="n">
-        <v>671.3763850963171</v>
+        <v>530.325628668935</v>
       </c>
       <c r="X13" t="n">
-        <v>509.0923380254941</v>
+        <v>530.325628668935</v>
       </c>
       <c r="Y13" t="n">
-        <v>357.7765519883313</v>
+        <v>530.325628668935</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1653.0370227692</v>
+        <v>1452.672125045209</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.657796418324</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.941523761099</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2624.086257188357</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2306.429927267608</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.735493334403</v>
+        <v>1781.370595610412</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>305.4047163160374</v>
+        <v>374.6989287590509</v>
       </c>
       <c r="C16" t="n">
-        <v>305.4047163160374</v>
+        <v>374.6989287590509</v>
       </c>
       <c r="D16" t="n">
-        <v>305.4047163160374</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160374</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752044</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581889</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1307.658475434552</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457734</v>
+        <v>1094.015958822647</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127915</v>
+        <v>899.8328887896649</v>
       </c>
       <c r="W16" t="n">
-        <v>582.430342890163</v>
+        <v>688.2987618670365</v>
       </c>
       <c r="X16" t="n">
-        <v>456.7205023532001</v>
+        <v>526.0147147962136</v>
       </c>
       <c r="Y16" t="n">
-        <v>305.4047163160374</v>
+        <v>374.6989287590509</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924248</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,22 +5540,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443166</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924236</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240293</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
         <v>1090.581152532864</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924236</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K23" t="n">
         <v>565.7512566404055</v>
@@ -5996,43 +5996,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885601</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369577</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218808</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072693</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462929</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197453</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6303,19 +6303,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1504.441740534771</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1504.441740534771</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6388,10 +6388,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,19 +6461,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388008</v>
+        <v>247.9841471388009</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958359</v>
+        <v>700.0178648958361</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
         <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647883</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>292.501909106015</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230601</v>
+        <v>651.4842651334768</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741589</v>
+        <v>1144.804556852006</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.18414451324</v>
+        <v>1690.805456896586</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150702</v>
+        <v>2330.268861109031</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.3081217701</v>
+        <v>2770.30846200136</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374189</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>342.9206752648154</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>618.7004357135982</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465405</v>
+        <v>804.9920140518622</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777498</v>
+        <v>1093.981306685318</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924209</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6950,34 +6950,34 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,28 +7011,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885586</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369564</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218797</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634908</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588723</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072646</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462903</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.1191277041155</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878571</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261211</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214671</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918791</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161887</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194215</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330077</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983994</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974513</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343045</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7442,7 +7442,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
         <v>1458.313011372373</v>
@@ -7567,25 +7567,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7637,10 +7637,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7679,13 +7679,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7731,19 +7731,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.744905612751</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.52287682331</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1778.52287682331</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369568</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072661</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462912</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,7 +7813,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
         <v>806.6193906797589</v>
@@ -7828,28 +7828,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>610.6003825615851</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970421</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211824</v>
+        <v>399.644649999578</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>586.566374633792</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>316.1759081222339</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269429</v>
+        <v>269.5664898960549</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>498.7523067719748</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488206</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,7 +9012,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>335.1420048916687</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9644,7 +9644,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488206</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>306.543171528089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>342.4574509263905</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10598,7 +10598,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698818</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10671,7 +10671,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10832,7 +10832,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10908,7 +10908,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11379,22 +11379,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>458.3628540128008</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>147.5112319245263</v>
+        <v>229.8245486567681</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>55.63194755880946</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442478</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681691</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>88.0565817840924</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.2366820904783</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>236.9540183796489</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993867</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442478</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681691</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901681</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>104.8097347871039</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>36.20846446852148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1150668.608873596</v>
+        <v>1149766.287452956</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1150668.608873596</v>
+        <v>1149766.287452956</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1026738.824207753</v>
+        <v>1026738.824207754</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1026738.824207753</v>
+        <v>1026738.824207754</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>144265.7424746855</v>
       </c>
       <c r="C2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="D2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="E2" t="n">
         <v>127487.2187395205</v>
@@ -26332,7 +26332,7 @@
         <v>144265.7424746853</v>
       </c>
       <c r="I2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746853</v>
       </c>
       <c r="J2" t="n">
         <v>144265.7424746851</v>
@@ -26341,10 +26341,10 @@
         <v>144265.7424746851</v>
       </c>
       <c r="L2" t="n">
-        <v>144265.7424746853</v>
+        <v>144265.7424746854</v>
       </c>
       <c r="M2" t="n">
-        <v>144265.7424746854</v>
+        <v>144265.7424746855</v>
       </c>
       <c r="N2" t="n">
         <v>144265.7424746854</v>
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740447</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668192</v>
+        <v>47425.32553668184</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972855</v>
+        <v>62456.24177539671</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962311</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277132</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002079</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002078</v>
+        <v>112797.3745002079</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="H4" t="n">
         <v>160556.2909917899</v>
       </c>
       <c r="I4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="J4" t="n">
         <v>161306.7834561731</v>
@@ -26445,10 +26445,10 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
-        <v>160556.2909917901</v>
+        <v>160556.29099179</v>
       </c>
       <c r="N4" t="n">
         <v>160556.29099179</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984054</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304438.714876279</v>
+        <v>-300388.0428688644</v>
       </c>
       <c r="C6" t="n">
-        <v>-122233.7665844232</v>
+        <v>-126529.3858348093</v>
       </c>
       <c r="D6" t="n">
-        <v>-128825.8279241456</v>
+        <v>-136562.1171475372</v>
       </c>
       <c r="E6" t="n">
-        <v>-150618.7369345725</v>
+        <v>-150828.468481262</v>
       </c>
       <c r="F6" t="n">
-        <v>-38496.17546052775</v>
+        <v>-38705.90700721744</v>
       </c>
       <c r="G6" t="n">
-        <v>-121885.6433693062</v>
+        <v>-121885.6433693061</v>
       </c>
       <c r="H6" t="n">
-        <v>-74460.31783262425</v>
+        <v>-74460.31783262431</v>
       </c>
       <c r="I6" t="n">
-        <v>-74460.31783262434</v>
+        <v>-74460.31783262442</v>
       </c>
       <c r="J6" t="n">
-        <v>-287502.23542991</v>
+        <v>-280985.9502753367</v>
       </c>
       <c r="K6" t="n">
-        <v>-80700.08623540748</v>
+        <v>-80700.08623540751</v>
       </c>
       <c r="L6" t="n">
-        <v>-135882.6751700285</v>
+        <v>-139931.5123805005</v>
       </c>
       <c r="M6" t="n">
-        <v>-116661.1472922474</v>
+        <v>-117712.8423034354</v>
       </c>
       <c r="N6" t="n">
         <v>-74460.31783262428</v>
@@ -26561,7 +26561,7 @@
         <v>-102228.0118753955</v>
       </c>
       <c r="P6" t="n">
-        <v>-74460.31783262435</v>
+        <v>-74460.31783262419</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155843</v>
@@ -26704,7 +26704,7 @@
         <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
@@ -26713,10 +26713,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014445</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26805,10 +26805,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014445</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
@@ -26817,10 +26817,10 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.2816569208523</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346416</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660688</v>
+        <v>78.07030221924589</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551356</v>
+        <v>17.58004954287433</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346416</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321495</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.2816569208523</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346416</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321495</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>161.1746995829608</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>232.1599799543295</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,10 +27506,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>161.4998697153998</v>
+        <v>124.5704364758571</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,16 +27546,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>110.6313202822202</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27588,7 +27588,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>151.500920511134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>163.5139560051718</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>116.934181804201</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758571</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.4998697153999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>254.5019119805588</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>222.1051212966072</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>13.32461421199451</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>237.6282855797891</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>115.7513272609334</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.6903159654761</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.078312394732</v>
       </c>
     </row>
     <row r="17">
@@ -28749,25 +28749,25 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155843</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.636002634530087</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155843</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2979821082787</v>
+        <v>28.012500264854</v>
       </c>
       <c r="R22" t="n">
         <v>130.3599693155843</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>128.2979821082792</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29296,16 +29296,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29314,7 +29314,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29469,7 +29469,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
         <v>93.99127447431646</v>
@@ -29533,22 +29533,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.2722376590126</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>81.10808140893113</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566512</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>106.8683420224712</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254051</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,43 +30174,43 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>28.01250026485258</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634527216</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634528552</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30885,11 +30885,11 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.297982108277</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>460.8753309638578</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729457</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701577</v>
+        <v>314.2725371454113</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>436.8413230360647</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>166.6120706981375</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776311</v>
+        <v>177.179367846743</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>349.6338154341907</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510934</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257292</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488448</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,7 +35732,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257292</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36045,13 +36045,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094889</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>249.769892037502</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434252</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.7547461184312</v>
+        <v>31.46926427500648</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835522</v>
+        <v>7.697989841835494</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510934</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>216.4828246711707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462374</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835494</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101038</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,7 +36610,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>249.7698920375016</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36765,7 +36765,7 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113952</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851016</v>
+        <v>176.3831193851017</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>227.2189631350201</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974447</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>75.16693519537677</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>291.9083763974299</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269299</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457854</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37391,7 +37391,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,22 +37470,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176445</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724854</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37628,7 +37628,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873205</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>371.2794891934861</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634528176</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
